--- a/Results/lenet_mnist_10clients_0.1_niid2_phase3.xlsx
+++ b/Results/lenet_mnist_10clients_0.1_niid2_phase3.xlsx
@@ -13,6 +13,7 @@
     <sheet name="Dataset3" sheetId="4" r:id="rId4"/>
     <sheet name="Dataset4" sheetId="5" r:id="rId5"/>
     <sheet name="Dataset5" sheetId="6" r:id="rId6"/>
+    <sheet name="Dataset6" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -414,34 +415,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.999858558177948</v>
+        <v>0.6721304655075073</v>
       </c>
       <c r="C2">
-        <v>0.2228592038154602</v>
+        <v>0.5735329389572144</v>
       </c>
       <c r="D2">
-        <v>-0.06657328456640244</v>
+        <v>0.2776912152767181</v>
       </c>
       <c r="E2">
-        <v>0.02742210030555725</v>
+        <v>0.4238358736038208</v>
       </c>
       <c r="F2">
-        <v>0.1322018057107925</v>
+        <v>0.9999757409095764</v>
       </c>
       <c r="G2">
-        <v>0.1374882310628891</v>
+        <v>0.4450511932373047</v>
       </c>
       <c r="H2">
-        <v>0.2422592043876648</v>
+        <v>0.4719658195972443</v>
       </c>
       <c r="I2">
-        <v>0.3748404681682587</v>
+        <v>0.4830614924430847</v>
       </c>
       <c r="J2">
-        <v>-0.007709798403084278</v>
+        <v>0.9619371891021729</v>
       </c>
       <c r="K2">
-        <v>0.2151333689689636</v>
+        <v>0.4817048907279968</v>
       </c>
     </row>
   </sheetData>
@@ -494,34 +495,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1285948157310486</v>
+        <v>0.6092506647109985</v>
       </c>
       <c r="C2">
-        <v>0.5371664762496948</v>
+        <v>0.9999456405639648</v>
       </c>
       <c r="D2">
-        <v>0.1963246762752533</v>
+        <v>0.6773009300231934</v>
       </c>
       <c r="E2">
-        <v>0.4012236297130585</v>
+        <v>0.4921538829803467</v>
       </c>
       <c r="F2">
-        <v>0.9953389763832092</v>
+        <v>0.5753253102302551</v>
       </c>
       <c r="G2">
-        <v>0.999083936214447</v>
+        <v>0.5091294646263123</v>
       </c>
       <c r="H2">
-        <v>0.3882542848587036</v>
+        <v>0.4701954424381256</v>
       </c>
       <c r="I2">
-        <v>0.3304442763328552</v>
+        <v>0.4804378747940063</v>
       </c>
       <c r="J2">
-        <v>0.2244351208209991</v>
+        <v>0.5317591428756714</v>
       </c>
       <c r="K2">
-        <v>0.5381672978401184</v>
+        <v>0.475439727306366</v>
       </c>
     </row>
   </sheetData>
@@ -574,34 +575,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2170973569154739</v>
+        <v>0.6244310140609741</v>
       </c>
       <c r="C2">
-        <v>0.9999386072158813</v>
+        <v>0.4747214913368225</v>
       </c>
       <c r="D2">
-        <v>0.158611997961998</v>
+        <v>0.4248911142349243</v>
       </c>
       <c r="E2">
-        <v>0.3037550747394562</v>
+        <v>0.5606163144111633</v>
       </c>
       <c r="F2">
-        <v>0.5352044701576233</v>
+        <v>0.4715515375137329</v>
       </c>
       <c r="G2">
-        <v>0.5405615568161011</v>
+        <v>0.5680879354476929</v>
       </c>
       <c r="H2">
-        <v>0.2704827785491943</v>
+        <v>0.9999940395355225</v>
       </c>
       <c r="I2">
-        <v>0.4015422463417053</v>
+        <v>0.6111102104187012</v>
       </c>
       <c r="J2">
-        <v>0.2201957702636719</v>
+        <v>0.5656715035438538</v>
       </c>
       <c r="K2">
-        <v>0.5895646214485168</v>
+        <v>0.6113666892051697</v>
       </c>
     </row>
   </sheetData>
@@ -654,34 +655,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2597621083259583</v>
+        <v>0.5542436838150024</v>
       </c>
       <c r="C2">
-        <v>0.2814125120639801</v>
+        <v>0.4956426918506622</v>
       </c>
       <c r="D2">
-        <v>0.264371395111084</v>
+        <v>0.3944870233535767</v>
       </c>
       <c r="E2">
-        <v>0.4972291588783264</v>
+        <v>0.9999757409095764</v>
       </c>
       <c r="F2">
-        <v>0.3965376317501068</v>
+        <v>0.4249202013015747</v>
       </c>
       <c r="G2">
-        <v>0.3925358057022095</v>
+        <v>0.6062741279602051</v>
       </c>
       <c r="H2">
-        <v>0.9992741942405701</v>
+        <v>0.5619274377822876</v>
       </c>
       <c r="I2">
-        <v>0.4799420237541199</v>
+        <v>0.5587514638900757</v>
       </c>
       <c r="J2">
-        <v>0.2120017111301422</v>
+        <v>0.5021576285362244</v>
       </c>
       <c r="K2">
-        <v>0.2938115298748016</v>
+        <v>0.5551619529724121</v>
       </c>
     </row>
   </sheetData>
@@ -734,34 +735,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.06078615784645081</v>
+        <v>0.4163540005683899</v>
       </c>
       <c r="C2">
-        <v>0.1695825457572937</v>
+        <v>0.6783886551856995</v>
       </c>
       <c r="D2">
-        <v>0.9994022846221924</v>
+        <v>0.9999805688858032</v>
       </c>
       <c r="E2">
-        <v>0.4964382350444794</v>
+        <v>0.3948289155960083</v>
       </c>
       <c r="F2">
-        <v>0.2048692107200623</v>
+        <v>0.2745755314826965</v>
       </c>
       <c r="G2">
-        <v>0.1993109732866287</v>
+        <v>0.3991819620132446</v>
       </c>
       <c r="H2">
-        <v>0.2655326128005981</v>
+        <v>0.425958514213562</v>
       </c>
       <c r="I2">
-        <v>0.05041977390646935</v>
+        <v>0.420721024274826</v>
       </c>
       <c r="J2">
-        <v>0.980853259563446</v>
+        <v>0.3633705377578735</v>
       </c>
       <c r="K2">
-        <v>0.1733254343271255</v>
+        <v>0.4198571443557739</v>
       </c>
     </row>
   </sheetData>
@@ -814,34 +815,114 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2108662724494934</v>
+        <v>0.6334958672523499</v>
       </c>
       <c r="C2">
-        <v>0.5902490615844727</v>
+        <v>0.4871366024017334</v>
       </c>
       <c r="D2">
-        <v>0.1601273715496063</v>
+        <v>0.4169019460678101</v>
       </c>
       <c r="E2">
-        <v>0.332537055015564</v>
+        <v>0.5541960000991821</v>
       </c>
       <c r="F2">
-        <v>0.5358590483665466</v>
+        <v>0.4884493947029114</v>
       </c>
       <c r="G2">
-        <v>0.5407512784004211</v>
+        <v>0.5628299117088318</v>
       </c>
       <c r="H2">
-        <v>0.2795058786869049</v>
+        <v>0.6098681092262268</v>
       </c>
       <c r="I2">
-        <v>0.3969757258892059</v>
+        <v>0.6073082089424133</v>
       </c>
       <c r="J2">
-        <v>0.2191848009824753</v>
+        <v>0.5718712210655212</v>
       </c>
       <c r="K2">
-        <v>0.9999534487724304</v>
+        <v>0.9997979402542114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.5656659007072449</v>
+      </c>
+      <c r="C2">
+        <v>0.5083894729614258</v>
+      </c>
+      <c r="D2">
+        <v>0.4014723896980286</v>
+      </c>
+      <c r="E2">
+        <v>0.6093032360076904</v>
+      </c>
+      <c r="F2">
+        <v>0.4397695660591125</v>
+      </c>
+      <c r="G2">
+        <v>0.9998860955238342</v>
+      </c>
+      <c r="H2">
+        <v>0.5703920722007751</v>
+      </c>
+      <c r="I2">
+        <v>0.5683448314666748</v>
+      </c>
+      <c r="J2">
+        <v>0.5138601064682007</v>
+      </c>
+      <c r="K2">
+        <v>0.5639355182647705</v>
       </c>
     </row>
   </sheetData>

--- a/Results/lenet_mnist_10clients_0.1_niid2_phase3.xlsx
+++ b/Results/lenet_mnist_10clients_0.1_niid2_phase3.xlsx
@@ -13,7 +13,6 @@
     <sheet name="Dataset3" sheetId="4" r:id="rId4"/>
     <sheet name="Dataset4" sheetId="5" r:id="rId5"/>
     <sheet name="Dataset5" sheetId="6" r:id="rId6"/>
-    <sheet name="Dataset6" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -415,34 +414,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6721304655075073</v>
+        <v>0.9961810708045959</v>
       </c>
       <c r="C2">
-        <v>0.5735329389572144</v>
+        <v>0.7137191295623779</v>
       </c>
       <c r="D2">
-        <v>0.2776912152767181</v>
+        <v>0.8036084175109863</v>
       </c>
       <c r="E2">
-        <v>0.4238358736038208</v>
+        <v>0.8396639823913574</v>
       </c>
       <c r="F2">
-        <v>0.9999757409095764</v>
+        <v>0.7571098804473877</v>
       </c>
       <c r="G2">
-        <v>0.4450511932373047</v>
+        <v>0.7503378391265869</v>
       </c>
       <c r="H2">
-        <v>0.4719658195972443</v>
+        <v>0.7834049463272095</v>
       </c>
       <c r="I2">
-        <v>0.4830614924430847</v>
+        <v>0.6782199144363403</v>
       </c>
       <c r="J2">
-        <v>0.9619371891021729</v>
+        <v>0.1789307594299316</v>
       </c>
       <c r="K2">
-        <v>0.4817048907279968</v>
+        <v>0.8470863103866577</v>
       </c>
     </row>
   </sheetData>
@@ -495,34 +494,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6092506647109985</v>
+        <v>0.7685973644256592</v>
       </c>
       <c r="C2">
-        <v>0.9999456405639648</v>
+        <v>0.7598257660865784</v>
       </c>
       <c r="D2">
-        <v>0.6773009300231934</v>
+        <v>0.788414478302002</v>
       </c>
       <c r="E2">
-        <v>0.4921538829803467</v>
+        <v>0.7919524908065796</v>
       </c>
       <c r="F2">
-        <v>0.5753253102302551</v>
+        <v>0.9872326850891113</v>
       </c>
       <c r="G2">
-        <v>0.5091294646263123</v>
+        <v>0.8028349876403809</v>
       </c>
       <c r="H2">
-        <v>0.4701954424381256</v>
+        <v>0.8932207822799683</v>
       </c>
       <c r="I2">
-        <v>0.4804378747940063</v>
+        <v>0.6675131320953369</v>
       </c>
       <c r="J2">
-        <v>0.5317591428756714</v>
+        <v>0.177951455116272</v>
       </c>
       <c r="K2">
-        <v>0.475439727306366</v>
+        <v>0.8267695307731628</v>
       </c>
     </row>
   </sheetData>
@@ -575,34 +574,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6244310140609741</v>
+        <v>0.7177760601043701</v>
       </c>
       <c r="C2">
-        <v>0.4747214913368225</v>
+        <v>0.9923720359802246</v>
       </c>
       <c r="D2">
-        <v>0.4248911142349243</v>
+        <v>0.8058937191963196</v>
       </c>
       <c r="E2">
-        <v>0.5606163144111633</v>
+        <v>0.7465677261352539</v>
       </c>
       <c r="F2">
-        <v>0.4715515375137329</v>
+        <v>0.7611095905303955</v>
       </c>
       <c r="G2">
-        <v>0.5680879354476929</v>
+        <v>0.726169228553772</v>
       </c>
       <c r="H2">
-        <v>0.9999940395355225</v>
+        <v>0.8252667188644409</v>
       </c>
       <c r="I2">
-        <v>0.6111102104187012</v>
+        <v>0.7561604976654053</v>
       </c>
       <c r="J2">
-        <v>0.5656715035438538</v>
+        <v>0.1865821480751038</v>
       </c>
       <c r="K2">
-        <v>0.6113666892051697</v>
+        <v>0.7235233783721924</v>
       </c>
     </row>
   </sheetData>
@@ -655,34 +654,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5542436838150024</v>
+        <v>0.7829170227050781</v>
       </c>
       <c r="C2">
-        <v>0.4956426918506622</v>
+        <v>0.8285946249961853</v>
       </c>
       <c r="D2">
-        <v>0.3944870233535767</v>
+        <v>0.8421286344528198</v>
       </c>
       <c r="E2">
-        <v>0.9999757409095764</v>
+        <v>0.8076187372207642</v>
       </c>
       <c r="F2">
-        <v>0.4249202013015747</v>
+        <v>0.8930841684341431</v>
       </c>
       <c r="G2">
-        <v>0.6062741279602051</v>
+        <v>0.8200897574424744</v>
       </c>
       <c r="H2">
-        <v>0.5619274377822876</v>
+        <v>0.9951983094215393</v>
       </c>
       <c r="I2">
-        <v>0.5587514638900757</v>
+        <v>0.7297013998031616</v>
       </c>
       <c r="J2">
-        <v>0.5021576285362244</v>
+        <v>0.1826294958591461</v>
       </c>
       <c r="K2">
-        <v>0.5551619529724121</v>
+        <v>0.8144057393074036</v>
       </c>
     </row>
   </sheetData>
@@ -735,34 +734,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4163540005683899</v>
+        <v>0.8375523090362549</v>
       </c>
       <c r="C2">
-        <v>0.6783886551856995</v>
+        <v>0.7356505990028381</v>
       </c>
       <c r="D2">
-        <v>0.9999805688858032</v>
+        <v>0.8375166058540344</v>
       </c>
       <c r="E2">
-        <v>0.3948289155960083</v>
+        <v>0.985943078994751</v>
       </c>
       <c r="F2">
-        <v>0.2745755314826965</v>
+        <v>0.781256377696991</v>
       </c>
       <c r="G2">
-        <v>0.3991819620132446</v>
+        <v>0.8619245290756226</v>
       </c>
       <c r="H2">
-        <v>0.425958514213562</v>
+        <v>0.8007816076278687</v>
       </c>
       <c r="I2">
-        <v>0.420721024274826</v>
+        <v>0.726362407207489</v>
       </c>
       <c r="J2">
-        <v>0.3633705377578735</v>
+        <v>0.1973037719726562</v>
       </c>
       <c r="K2">
-        <v>0.4198571443557739</v>
+        <v>0.8535432815551758</v>
       </c>
     </row>
   </sheetData>
@@ -815,114 +814,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6334958672523499</v>
+        <v>0.7806659936904907</v>
       </c>
       <c r="C2">
-        <v>0.4871366024017334</v>
+        <v>0.7839896082878113</v>
       </c>
       <c r="D2">
-        <v>0.4169019460678101</v>
+        <v>0.9758310914039612</v>
       </c>
       <c r="E2">
-        <v>0.5541960000991821</v>
+        <v>0.8235639333724976</v>
       </c>
       <c r="F2">
-        <v>0.4884493947029114</v>
+        <v>0.7672092914581299</v>
       </c>
       <c r="G2">
-        <v>0.5628299117088318</v>
+        <v>0.7882552146911621</v>
       </c>
       <c r="H2">
-        <v>0.6098681092262268</v>
+        <v>0.8187798857688904</v>
       </c>
       <c r="I2">
-        <v>0.6073082089424133</v>
+        <v>0.7530128955841064</v>
       </c>
       <c r="J2">
-        <v>0.5718712210655212</v>
+        <v>0.1513452529907227</v>
       </c>
       <c r="K2">
-        <v>0.9997979402542114</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.5656659007072449</v>
-      </c>
-      <c r="C2">
-        <v>0.5083894729614258</v>
-      </c>
-      <c r="D2">
-        <v>0.4014723896980286</v>
-      </c>
-      <c r="E2">
-        <v>0.6093032360076904</v>
-      </c>
-      <c r="F2">
-        <v>0.4397695660591125</v>
-      </c>
-      <c r="G2">
-        <v>0.9998860955238342</v>
-      </c>
-      <c r="H2">
-        <v>0.5703920722007751</v>
-      </c>
-      <c r="I2">
-        <v>0.5683448314666748</v>
-      </c>
-      <c r="J2">
-        <v>0.5138601064682007</v>
-      </c>
-      <c r="K2">
-        <v>0.5639355182647705</v>
+        <v>0.8160553574562073</v>
       </c>
     </row>
   </sheetData>

--- a/Results/lenet_mnist_10clients_0.1_niid2_phase3.xlsx
+++ b/Results/lenet_mnist_10clients_0.1_niid2_phase3.xlsx
@@ -13,6 +13,7 @@
     <sheet name="Dataset3" sheetId="4" r:id="rId4"/>
     <sheet name="Dataset4" sheetId="5" r:id="rId5"/>
     <sheet name="Dataset5" sheetId="6" r:id="rId6"/>
+    <sheet name="Dataset6" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -371,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -414,34 +415,69 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9961810708045959</v>
+        <v>0.9999051094055176</v>
       </c>
       <c r="C2">
-        <v>0.7137191295623779</v>
+        <v>0.09326370060443878</v>
       </c>
       <c r="D2">
-        <v>0.8036084175109863</v>
+        <v>0.09051565825939178</v>
       </c>
       <c r="E2">
-        <v>0.8396639823913574</v>
+        <v>0.0655195564031601</v>
       </c>
       <c r="F2">
-        <v>0.7571098804473877</v>
+        <v>-0.01217439025640488</v>
       </c>
       <c r="G2">
-        <v>0.7503378391265869</v>
+        <v>0.08230994641780853</v>
       </c>
       <c r="H2">
-        <v>0.7834049463272095</v>
+        <v>0.08619894832372665</v>
       </c>
       <c r="I2">
-        <v>0.6782199144363403</v>
+        <v>0.08870893716812134</v>
       </c>
       <c r="J2">
-        <v>0.1789307594299316</v>
+        <v>0.3422240614891052</v>
       </c>
       <c r="K2">
-        <v>0.8470863103866577</v>
+        <v>0.1632575839757919</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.9861592054367065</v>
+      </c>
+      <c r="C3">
+        <v>0.392803430557251</v>
+      </c>
+      <c r="D3">
+        <v>0.2890704274177551</v>
+      </c>
+      <c r="E3">
+        <v>0.3375008106231689</v>
+      </c>
+      <c r="F3">
+        <v>0.2688804864883423</v>
+      </c>
+      <c r="G3">
+        <v>0.3297895789146423</v>
+      </c>
+      <c r="H3">
+        <v>0.3046607971191406</v>
+      </c>
+      <c r="I3">
+        <v>0.2944368124008179</v>
+      </c>
+      <c r="J3">
+        <v>0.6086386442184448</v>
+      </c>
+      <c r="K3">
+        <v>0.4313591122627258</v>
       </c>
     </row>
   </sheetData>
@@ -451,7 +487,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -494,34 +530,69 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7685973644256592</v>
+        <v>0.08567481487989426</v>
       </c>
       <c r="C2">
-        <v>0.7598257660865784</v>
+        <v>0.7707079648971558</v>
       </c>
       <c r="D2">
-        <v>0.788414478302002</v>
+        <v>0.09524853527545929</v>
       </c>
       <c r="E2">
-        <v>0.7919524908065796</v>
+        <v>0.1009634286165237</v>
       </c>
       <c r="F2">
-        <v>0.9872326850891113</v>
+        <v>-0.03628045693039894</v>
       </c>
       <c r="G2">
-        <v>0.8028349876403809</v>
+        <v>0.0829053521156311</v>
       </c>
       <c r="H2">
-        <v>0.8932207822799683</v>
+        <v>0.03681080043315887</v>
       </c>
       <c r="I2">
-        <v>0.6675131320953369</v>
+        <v>0.04798645526170731</v>
       </c>
       <c r="J2">
-        <v>0.177951455116272</v>
+        <v>0.1227208524942398</v>
       </c>
       <c r="K2">
-        <v>0.8267695307731628</v>
+        <v>0.1009628996253014</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.4145543575286865</v>
+      </c>
+      <c r="C3">
+        <v>0.976090669631958</v>
+      </c>
+      <c r="D3">
+        <v>0.4390523135662079</v>
+      </c>
+      <c r="E3">
+        <v>0.5419752597808838</v>
+      </c>
+      <c r="F3">
+        <v>0.3955252766609192</v>
+      </c>
+      <c r="G3">
+        <v>0.4726196825504303</v>
+      </c>
+      <c r="H3">
+        <v>0.454709529876709</v>
+      </c>
+      <c r="I3">
+        <v>0.447839617729187</v>
+      </c>
+      <c r="J3">
+        <v>0.401517927646637</v>
+      </c>
+      <c r="K3">
+        <v>0.5720728635787964</v>
       </c>
     </row>
   </sheetData>
@@ -531,7 +602,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -574,34 +645,69 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7177760601043701</v>
+        <v>0.08859540522098541</v>
       </c>
       <c r="C2">
-        <v>0.9923720359802246</v>
+        <v>0.03776833415031433</v>
       </c>
       <c r="D2">
-        <v>0.8058937191963196</v>
+        <v>0.1416178643703461</v>
       </c>
       <c r="E2">
-        <v>0.7465677261352539</v>
+        <v>0.1819815933704376</v>
       </c>
       <c r="F2">
-        <v>0.7611095905303955</v>
+        <v>0.0396210141479969</v>
       </c>
       <c r="G2">
-        <v>0.726169228553772</v>
+        <v>0.1667461693286896</v>
       </c>
       <c r="H2">
-        <v>0.8252667188644409</v>
+        <v>0.9100717902183533</v>
       </c>
       <c r="I2">
-        <v>0.7561604976654053</v>
+        <v>0.8025084733963013</v>
       </c>
       <c r="J2">
-        <v>0.1865821480751038</v>
+        <v>0.1466783434152603</v>
       </c>
       <c r="K2">
-        <v>0.7235233783721924</v>
+        <v>0.262753814458847</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.2893897593021393</v>
+      </c>
+      <c r="C3">
+        <v>0.4568441212177277</v>
+      </c>
+      <c r="D3">
+        <v>0.6300233602523804</v>
+      </c>
+      <c r="E3">
+        <v>0.583627462387085</v>
+      </c>
+      <c r="F3">
+        <v>0.4869049489498138</v>
+      </c>
+      <c r="G3">
+        <v>0.481187641620636</v>
+      </c>
+      <c r="H3">
+        <v>0.9994305968284607</v>
+      </c>
+      <c r="I3">
+        <v>0.9961239099502563</v>
+      </c>
+      <c r="J3">
+        <v>0.3638388216495514</v>
+      </c>
+      <c r="K3">
+        <v>0.5366263389587402</v>
       </c>
     </row>
   </sheetData>
@@ -611,7 +717,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -654,34 +760,69 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7829170227050781</v>
+        <v>0.07392657548189163</v>
       </c>
       <c r="C2">
-        <v>0.8285946249961853</v>
+        <v>0.09128685295581818</v>
       </c>
       <c r="D2">
-        <v>0.8421286344528198</v>
+        <v>0.2074693441390991</v>
       </c>
       <c r="E2">
-        <v>0.8076187372207642</v>
+        <v>0.9052256345748901</v>
       </c>
       <c r="F2">
-        <v>0.8930841684341431</v>
+        <v>0.00865417905151844</v>
       </c>
       <c r="G2">
-        <v>0.8200897574424744</v>
+        <v>0.2178893983364105</v>
       </c>
       <c r="H2">
-        <v>0.9951983094215393</v>
+        <v>0.2006982266902924</v>
       </c>
       <c r="I2">
-        <v>0.7297013998031616</v>
+        <v>0.1958149969577789</v>
       </c>
       <c r="J2">
-        <v>0.1826294958591461</v>
+        <v>0.1015658229589462</v>
       </c>
       <c r="K2">
-        <v>0.8144057393074036</v>
+        <v>0.07894022762775421</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.3674519956111908</v>
+      </c>
+      <c r="C3">
+        <v>0.5725570917129517</v>
+      </c>
+      <c r="D3">
+        <v>0.5584933161735535</v>
+      </c>
+      <c r="E3">
+        <v>0.9912464022636414</v>
+      </c>
+      <c r="F3">
+        <v>0.4533518552780151</v>
+      </c>
+      <c r="G3">
+        <v>0.5246440172195435</v>
+      </c>
+      <c r="H3">
+        <v>0.5725070238113403</v>
+      </c>
+      <c r="I3">
+        <v>0.5589880347251892</v>
+      </c>
+      <c r="J3">
+        <v>0.4102559685707092</v>
+      </c>
+      <c r="K3">
+        <v>0.5918019413948059</v>
       </c>
     </row>
   </sheetData>
@@ -691,7 +832,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -734,34 +875,69 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8375523090362549</v>
+        <v>0.09351271390914917</v>
       </c>
       <c r="C2">
-        <v>0.7356505990028381</v>
+        <v>0.142350435256958</v>
       </c>
       <c r="D2">
-        <v>0.8375166058540344</v>
+        <v>0.8020976781845093</v>
       </c>
       <c r="E2">
-        <v>0.985943078994751</v>
+        <v>0.239871472120285</v>
       </c>
       <c r="F2">
-        <v>0.781256377696991</v>
+        <v>-0.02754322253167629</v>
       </c>
       <c r="G2">
-        <v>0.8619245290756226</v>
+        <v>0.09403332322835922</v>
       </c>
       <c r="H2">
-        <v>0.8007816076278687</v>
+        <v>0.1761681139469147</v>
       </c>
       <c r="I2">
-        <v>0.726362407207489</v>
+        <v>0.180820643901825</v>
       </c>
       <c r="J2">
-        <v>0.1973037719726562</v>
+        <v>0.3787252306938171</v>
       </c>
       <c r="K2">
-        <v>0.8535432815551758</v>
+        <v>0.1473810821771622</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.284391850233078</v>
+      </c>
+      <c r="C3">
+        <v>0.437577486038208</v>
+      </c>
+      <c r="D3">
+        <v>0.99895179271698</v>
+      </c>
+      <c r="E3">
+        <v>0.5637452602386475</v>
+      </c>
+      <c r="F3">
+        <v>0.4804355800151825</v>
+      </c>
+      <c r="G3">
+        <v>0.4718860983848572</v>
+      </c>
+      <c r="H3">
+        <v>0.620935320854187</v>
+      </c>
+      <c r="I3">
+        <v>0.6274706721305847</v>
+      </c>
+      <c r="J3">
+        <v>0.7118402123451233</v>
+      </c>
+      <c r="K3">
+        <v>0.5382336378097534</v>
       </c>
     </row>
   </sheetData>
@@ -771,7 +947,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -814,34 +990,184 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7806659936904907</v>
+        <v>0.1434425115585327</v>
       </c>
       <c r="C2">
-        <v>0.7839896082878113</v>
+        <v>0.1056455224752426</v>
       </c>
       <c r="D2">
-        <v>0.9758310914039612</v>
+        <v>0.09122804552316666</v>
       </c>
       <c r="E2">
-        <v>0.8235639333724976</v>
+        <v>0.114366888999939</v>
       </c>
       <c r="F2">
-        <v>0.7672092914581299</v>
+        <v>-0.005258874036371708</v>
       </c>
       <c r="G2">
-        <v>0.7882552146911621</v>
+        <v>0.1908135712146759</v>
       </c>
       <c r="H2">
-        <v>0.8187798857688904</v>
+        <v>0.2535695433616638</v>
       </c>
       <c r="I2">
-        <v>0.7530128955841064</v>
+        <v>0.250722736120224</v>
       </c>
       <c r="J2">
-        <v>0.1513452529907227</v>
+        <v>0.1476175338029861</v>
       </c>
       <c r="K2">
-        <v>0.8160553574562073</v>
+        <v>0.6845978498458862</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.4477210640907288</v>
+      </c>
+      <c r="C3">
+        <v>0.568905234336853</v>
+      </c>
+      <c r="D3">
+        <v>0.5396084785461426</v>
+      </c>
+      <c r="E3">
+        <v>0.5732409358024597</v>
+      </c>
+      <c r="F3">
+        <v>0.4436930418014526</v>
+      </c>
+      <c r="G3">
+        <v>0.5334718227386475</v>
+      </c>
+      <c r="H3">
+        <v>0.5425766706466675</v>
+      </c>
+      <c r="I3">
+        <v>0.5335004329681396</v>
+      </c>
+      <c r="J3">
+        <v>0.4790264666080475</v>
+      </c>
+      <c r="K3">
+        <v>0.9873367547988892</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.07957135140895844</v>
+      </c>
+      <c r="C2">
+        <v>0.09177468717098236</v>
+      </c>
+      <c r="D2">
+        <v>0.06670376658439636</v>
+      </c>
+      <c r="E2">
+        <v>0.1987801939249039</v>
+      </c>
+      <c r="F2">
+        <v>-0.02185993082821369</v>
+      </c>
+      <c r="G2">
+        <v>0.788226842880249</v>
+      </c>
+      <c r="H2">
+        <v>0.1572878360748291</v>
+      </c>
+      <c r="I2">
+        <v>0.1660382896661758</v>
+      </c>
+      <c r="J2">
+        <v>0.120073065161705</v>
+      </c>
+      <c r="K2">
+        <v>0.1031055301427841</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.3340534567832947</v>
+      </c>
+      <c r="C3">
+        <v>0.4295613765716553</v>
+      </c>
+      <c r="D3">
+        <v>0.4784241318702698</v>
+      </c>
+      <c r="E3">
+        <v>0.4991563260555267</v>
+      </c>
+      <c r="F3">
+        <v>0.4573816955089569</v>
+      </c>
+      <c r="G3">
+        <v>0.9670757055282593</v>
+      </c>
+      <c r="H3">
+        <v>0.4854291677474976</v>
+      </c>
+      <c r="I3">
+        <v>0.474746435880661</v>
+      </c>
+      <c r="J3">
+        <v>0.3729523122310638</v>
+      </c>
+      <c r="K3">
+        <v>0.5300842523574829</v>
       </c>
     </row>
   </sheetData>
